--- a/codegen/codegen/SampleData.xlsx
+++ b/codegen/codegen/SampleData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\python\codegen\codegen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15445CB7-EE37-458F-B0CB-ED3D2778E9A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D441307-82F4-4147-B0DE-6A4F79F130C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fields" sheetId="1" r:id="rId1"/>
+    <sheet name="ConstantTextDefs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -58,13 +59,43 @@
   </si>
   <si>
     <t>City</t>
+  </si>
+  <si>
+    <t>TextID</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>ConstantIDDef</t>
+  </si>
+  <si>
+    <t>_NoString</t>
+  </si>
+  <si>
+    <t>DataImport</t>
+  </si>
+  <si>
+    <t>DataExport</t>
+  </si>
+  <si>
+    <t>CompositeBasisDataExport</t>
+  </si>
+  <si>
+    <t>CurrencyRate</t>
+  </si>
+  <si>
+    <t>InterestRate</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +103,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,8 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -441,4 +501,128 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE9D0ED-5C06-483B-9D2B-CE288274FFEE}">
+  <dimension ref="A5:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f>"public const int "&amp;A6&amp;" = "&amp;B6&amp;";"</f>
+        <v>public const int _NoString = 0;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <f>B6+1</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f>"public const int "&amp;A7&amp;" = offset + "&amp;B7&amp;";"</f>
+        <v>public const int DataImport = offset + 1;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" ref="B8:B12" si="0">B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" ref="C8:C12" si="1">"public const int "&amp;A8&amp;" = offset + "&amp;B8&amp;";"</f>
+        <v>public const int DataExport = offset + 2;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>public const int CompositeBasisDataExport = offset + 3;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>public const int CurrencyRate = offset + 4;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>public const int InterestRate = offset + 5;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>public const int Price = offset + 6;</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="A6:A12" name="ConstantTextDefs"/>
+  </protectedRanges>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>